--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Wolfram.Fall.121720-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Wolfram.Fall.121720-1.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4293,12 +4293,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4797,12 +4797,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5175,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5595,12 +5595,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6015,12 +6015,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6771,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7317,12 +7317,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7569,12 +7569,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7821,12 +7821,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8157,12 +8157,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8745,12 +8745,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8829,12 +8829,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8997,12 +8997,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9333,12 +9333,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10383,12 +10383,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10467,12 +10467,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10509,12 +10509,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10633,12 +10633,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10759,12 +10759,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10801,12 +10801,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11263,12 +11263,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11389,12 +11389,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12145,12 +12145,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12901,12 +12901,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13405,12 +13405,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14203,12 +14203,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14917,12 +14917,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15169,12 +15169,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15295,12 +15295,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15505,12 +15505,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15547,12 +15547,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15799,12 +15799,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15883,12 +15883,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16471,12 +16471,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
